--- a/report/reliability/by-unidade/Instituto de Química e Biotecnologia - IQB.xlsx
+++ b/report/reliability/by-unidade/Instituto de Química e Biotecnologia - IQB.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7925453206219826</v>
+        <v>0.761027135844054</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8091050692941052</v>
+        <v>0.7901331052810211</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9083934468363598</v>
+        <v>0.8958899144494801</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2610147501725811</v>
+        <v>0.22457153555943785</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.23848378949709</v>
+        <v>3.7649249365367745</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.028879490657728345</v>
+        <v>0.030706001169965587</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5944444444444446</v>
+        <v>1.9878205128205129</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.733989817351948</v>
+        <v>0.6113308493137676</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20039393802658734</v>
+        <v>0.16255434890301124</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7686145881536931</v>
+        <v>0.7626628276150408</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7813356982286745</v>
+        <v>0.786521120833841</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8901244634613429</v>
+        <v>0.8960703935392311</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2451908462559334</v>
+        <v>0.23490389603152598</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.5732201914045327</v>
+        <v>3.6843041518016446</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0322395796838581</v>
+        <v>0.03123192108882742</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04374042412996755</v>
+        <v>0.05212964131737611</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1960799973793432</v>
+        <v>0.16936349814576995</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.770579889995144</v>
+        <v>0.7415504166276565</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7862946321525762</v>
+        <v>0.7690252236442772</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.891667374761097</v>
+        <v>0.8812843046853218</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.25064749052525115</v>
+        <v>0.21719443276772085</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.6793396444489654</v>
+        <v>3.3294770787434653</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03192655066361419</v>
+        <v>0.03302411742412251</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.043128119577569304</v>
+        <v>0.05316269937073679</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.19836903546361914</v>
+        <v>0.14599962476371947</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.768945750306026</v>
+        <v>0.7474644039551979</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7817222774993551</v>
+        <v>0.7762321488640531</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8859838995526436</v>
+        <v>0.8838726222817841</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24561011413476191</v>
+        <v>0.22425080950971443</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.581319561812109</v>
+        <v>3.468917205592974</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03209825196425769</v>
+        <v>0.03218763281715044</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04160263123055559</v>
+        <v>0.051979176989569886</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1965116351198685</v>
+        <v>0.16192342128442175</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7737434138335635</v>
+        <v>0.7480462701050935</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7884125483733122</v>
+        <v>0.7732343501506941</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8894338114331335</v>
+        <v>0.8781681603327328</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.25303090488955493</v>
+        <v>0.221276742570296</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.726178193990162</v>
+        <v>3.4098389710458212</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03139355509506641</v>
+        <v>0.032868645276448706</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04086851442621203</v>
+        <v>0.0387043455141809</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.20318877365509477</v>
+        <v>0.16700298075300446</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7811663098225725</v>
+        <v>0.7294557492652307</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8038037501119005</v>
+        <v>0.7679308519646976</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.874466940960636</v>
+        <v>0.8746832770117285</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2713753973642715</v>
+        <v>0.21615046221480508</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.096937380660181</v>
+        <v>3.309060504017882</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03015626963395393</v>
+        <v>0.03449001726202013</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04201763584090627</v>
+        <v>0.03918949583711836</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20770641219025748</v>
+        <v>0.16169012946031824</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7894307900267389</v>
+        <v>0.7396547838498476</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8069523477436173</v>
+        <v>0.7717555729332238</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8769250696584591</v>
+        <v>0.8775637129970612</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.27536557332239875</v>
+        <v>0.21983024966902967</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.180068176493132</v>
+        <v>3.381267980345632</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02895604089111249</v>
+        <v>0.03297725815290038</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04093512500117119</v>
+        <v>0.03897122269460192</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2122314046246206</v>
+        <v>0.16483891431711822</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7890962820248353</v>
+        <v>0.7623395497555793</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8107179882328931</v>
+        <v>0.7908477610927218</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9048945814496959</v>
+        <v>0.8929985402053485</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28025178035804726</v>
+        <v>0.23960185423569105</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.2831222083079</v>
+        <v>3.781206288895251</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.029762107364135704</v>
+        <v>0.031244355416134312</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04877462850525886</v>
+        <v>0.05064223487478951</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2122314046246206</v>
+        <v>0.16700298075300446</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7837718287499361</v>
+        <v>0.7517758208118652</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8000200985181772</v>
+        <v>0.7815360275553942</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8995611616161624</v>
+        <v>0.8831827588968035</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2666912331680508</v>
+        <v>0.22965389749053647</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.000502513453309</v>
+        <v>3.5774137896057994</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03023279598227354</v>
+        <v>0.03183757939127503</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05128040447109703</v>
+        <v>0.0517477185094507</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.19836903546361914</v>
+        <v>0.16483891431711822</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.777178411437371</v>
+        <v>0.7482123311838696</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7962690269555133</v>
+        <v>0.7751743806633453</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9083973608495388</v>
+        <v>0.8878675290268818</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.26216260362715305</v>
+        <v>0.22319496702555477</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.908433828476533</v>
+        <v>3.4478916724459063</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.031435166210399</v>
+        <v>0.0318628507522766</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.053060477843168134</v>
+        <v>0.05415887529771938</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1965116351198685</v>
+        <v>0.1597361876144736</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7843730242360382</v>
+        <v>0.738356763908888</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8016930379832963</v>
+        <v>0.7747186774148085</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9129124957470284</v>
+        <v>0.8936069214938351</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2687476794250631</v>
+        <v>0.22274227069615785</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.042687305732452</v>
+        <v>3.4388943944602617</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.030228115558493848</v>
+        <v>0.03378038621157756</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.052105413310141624</v>
+        <v>0.05608099433272383</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1965116351198685</v>
+        <v>0.15382898758827784</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.768244401425867</v>
+        <v>0.7515401256345567</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7856267850162784</v>
+        <v>0.7849737855135094</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8803656554877108</v>
+        <v>0.898967037456821</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2499025831628048</v>
+        <v>0.23325602495020664</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.664761873706724</v>
+        <v>3.6505957535834623</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03226346094914356</v>
+        <v>0.031653652521504115</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04694900340397536</v>
+        <v>0.05443842899189451</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1965116351198685</v>
+        <v>0.16255434890301124</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7790227945481751</v>
+        <v>0.7286075100257677</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7971372275044242</v>
+        <v>0.7650067442642926</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.889998680212739</v>
+        <v>0.8667012926395788</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.26320079583768197</v>
+        <v>0.2133954185245209</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.929440664239212</v>
+        <v>3.255441275832535</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.030965555413927176</v>
+        <v>0.03454403138967369</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04655226338424712</v>
+        <v>0.05037019826881541</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.20150186956805258</v>
+        <v>0.14599962476371947</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7418263142711293</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7759604581915108</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8753674546124806</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.22397893658693238</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.4634977911837037</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03302316721104862</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05072784966798399</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.16358778318308137</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>120.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6493064035436261</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6956684939133188</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6836777798188005</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5750302705267851</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.441666666666667</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0108307036712891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6143166382514363</v>
+        <v>0.32727246223297773</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6516356210394457</v>
+        <v>0.4347277894221767</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6344843929509599</v>
+        <v>0.3647848198376796</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5198907585552415</v>
+        <v>0.3094890824597239</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.908333333333333</v>
+        <v>0.975</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.181053747795617</v>
+        <v>0.15677956478053226</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6390717408798381</v>
+        <v>0.5412206753180617</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6922851747344673</v>
+        <v>0.6033748425839401</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6893813235920612</v>
+        <v>0.5714202835985103</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5590678349691399</v>
+        <v>0.44173296754086566</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.525</v>
+        <v>3.441666666666667</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0608582224158074</v>
+        <v>1.0108307036712891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.584434416277639</v>
+        <v>0.4953266288734218</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6324024483183887</v>
+        <v>0.5361770328135764</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6233335104961529</v>
+        <v>0.49970398078454453</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.47920755013298294</v>
+        <v>0.37068386650327684</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.941666666666667</v>
+        <v>3.908333333333333</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.245467974775135</v>
+        <v>1.181053747795617</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.566883330690377</v>
+        <v>0.6065354358499183</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.4843699460684456</v>
+        <v>0.5644990444842438</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5019668216485763</v>
+        <v>0.5891049540011319</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4187648756749506</v>
+        <v>0.57061915430542</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.9</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6469987984260361</v>
+        <v>0.4298882663770058</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5372507414208159</v>
+        <v>0.662615926177873</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.45217086875337487</v>
+        <v>0.6133165644031858</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4679470565876802</v>
+        <v>0.6441798070674747</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.3688440190804711</v>
+        <v>0.5195203417029801</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.9583333333333334</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7841309507151428</v>
+        <v>1.6469987984260361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.409972752571644</v>
+        <v>0.6301225457565259</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4127411895188442</v>
+        <v>0.5782739828651576</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3450258819256156</v>
+        <v>0.6045533935920266</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.30057709896404056</v>
+        <v>0.4630138045186006</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.1416666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.079182956843619</v>
+        <v>1.7841309507151428</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5293530069568735</v>
+        <v>0.2961858206847268</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5221692227653525</v>
+        <v>0.38998917734753064</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.46584405566123055</v>
+        <v>0.32823417715736797</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.38634135457770213</v>
+        <v>0.27289739130866</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.2333333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5324683956785214</v>
+        <v>0.20066416332413975</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5821762090454156</v>
+        <v>0.44452797646355263</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5587133988239749</v>
+        <v>0.48472347646544384</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.482036225200793</v>
+        <v>0.4475667605500318</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.446134574685785</v>
+        <v>0.3258502455367945</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4</v>
+        <v>3.1416666666666666</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5578481172124967</v>
+        <v>1.079182956843619</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.49359532763901504</v>
+        <v>0.5405599844817008</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5055745480646145</v>
+        <v>0.5462318109231113</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.41510095744423725</v>
+        <v>0.4976377971295644</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3665576977111688</v>
+        <v>0.38198109967610283</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3833333333333333</v>
+        <v>3.2333333333333334</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3295815562972955</v>
+        <v>1.5324683956785214</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6365078473890438</v>
+        <v>0.6038138004915033</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6576467167925345</v>
+        <v>0.5505428338373953</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6537225735629213</v>
+        <v>0.47936534757158084</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5454500060567381</v>
+        <v>0.45544032497615416</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.1853446827006575</v>
+        <v>1.5578481172124967</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>120.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5268932386607508</v>
+        <v>0.48295843390289045</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5503356150857321</v>
+        <v>0.450420450329805</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.533513677114969</v>
+        <v>0.36467065948526545</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.43185875124024464</v>
+        <v>0.3391256380911798</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3833333333333333</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3295815562972955</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>120.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6483412248304689</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6395528197191758</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6411495507639556</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5483145607149038</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.2</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.1853446827006575</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>120.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5384053439244275</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5387660761165081</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5275387725385076</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.43359240353293926</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.1</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.0563931022846664</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.025</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.05</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.475</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.075</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.025</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.058333333333333334</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.44166666666666665</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.016666666666666666</v>
+        <v>0.025</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06666666666666667</v>
+        <v>0.975</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.016666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2916666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.49166666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.016666666666666666</v>
+        <v>0.025</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.008333333333333333</v>
       </c>
-      <c r="D46" t="n" s="111">
-        <v>0.08333333333333333</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.3333333333333333</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.025</v>
+        <v>0.475</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5333333333333333</v>
+        <v>0.075</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7583333333333333</v>
+        <v>0.025</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.008333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.008333333333333333</v>
+        <v>0.058333333333333334</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.041666666666666664</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.16666666666666666</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.016666666666666666</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7583333333333333</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.008333333333333333</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.008333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.058333333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.041666666666666664</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.06666666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.008333333333333333</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5333333333333333</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2916666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.058333333333333334</v>
+        <v>0.016666666666666666</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.041666666666666664</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C50" t="n" s="110">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.058333333333333334</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.1</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.25</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.075</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.25833333333333336</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.275</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.08333333333333333</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.03333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2833333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.18333333333333332</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C52" t="n" s="110">
         <v>0.06666666666666667</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.075</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E52" t="n" s="112">
         <v>0.5333333333333333</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14166666666666666</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.058333333333333334</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.125</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.09166666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.39166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24166666666666667</v>
+        <v>0.075</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.15</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.275</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.10833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.09166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.48333333333333334</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.225</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.09166666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.075</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.125</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.09166666666666666</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.15</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.09166666666666666</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.225</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.09166666666666666</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.9020912265722739</v>
+        <v>0.877937299403943</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.9046429385548607</v>
+        <v>0.9891194022062526</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9037231469730891</v>
+        <v>0.9853931486618858</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.7034159147437383</v>
+        <v>0.9680534027694468</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>9.486900339051653</v>
+        <v>90.9067149577625</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.014609998107679855</v>
+        <v>0.002856202671398869</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7041666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9920817458638126</v>
+        <v>1.2763744171132012</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.716101675074173</v>
+        <v>0.9720487959379402</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8810177791972746</v>
+        <v>0.9865724551763155</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8818968751809383</v>
+        <v>0.9881695669351203</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.845181574794228</v>
+        <v>0.9766157793276786</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.7133897563121829</v>
+        <v>0.9766157793276786</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>7.467176474221465</v>
+        <v>83.52775942485398</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.01853032320467844</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.006304294259655948</v>
-      </c>
+        <v>0.002297394149140557</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.7504269824591867</v>
+        <v>0.9766157793276786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8807057591131889</v>
+        <v>0.6064557255447383</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8862609983132346</v>
+        <v>0.9772413877048498</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8543483506109405</v>
+        <v>0.9554956330427213</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.7220178250669139</v>
+        <v>0.9554956330427213</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>7.792058881912622</v>
+        <v>42.93941014642162</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01896548231483527</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.007620322283922794</v>
-      </c>
+        <v>0.010722753180630153</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7675036233640199</v>
+        <v>0.9554956330427213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.864668286301626</v>
+        <v>0.6441316707902542</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8668351691745351</v>
+        <v>0.985826312148242</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8194515200745618</v>
+        <v>0.9720487959379404</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6845256771798517</v>
+        <v>0.9720487959379402</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>6.509490259561625</v>
+        <v>69.55326817261331</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.020825075198751906</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.004169357656142207</v>
-      </c>
+        <v>0.008472268717933858</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6817763676891593</v>
+        <v>0.9720487959379402</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.867183785812586</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8717174332339768</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.828885776625352</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6937304004160046</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>6.795291481997843</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02137102306777151</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.006108581968402403</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6817763676891593</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>120.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.975570790565717</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9864088101664695</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.975263401827711</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9691144753180612</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4298882663770058</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>120.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.86041800571074</v>
+        <v>0.9942959155647424</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8733115922946433</v>
+        <v>0.9935250466140715</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8238044285032426</v>
+        <v>0.9910735534946074</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7652028385677045</v>
+        <v>0.9825952310086932</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.441666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0108307036712891</v>
+        <v>1.6469987984260361</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>120.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.873152344519053</v>
+        <v>0.9932749815981182</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8659730911824642</v>
+        <v>0.9879476126546319</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8071512056648219</v>
+        <v>0.9797890755447737</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.763086394153838</v>
+        <v>0.9767357807573274</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.908333333333333</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.181053747795617</v>
+        <v>1.7841309507151428</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>120.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8913706609683169</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8978615910065212</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8686085574723327</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.8090884852004288</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.525</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0608582224158074</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>120.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9006512605790057</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8900326232935819</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8535256546253333</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.803637994398254</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.941666666666667</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.245467974775135</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.016666666666666666</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.025</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.05</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.008333333333333333</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.36666666666666664</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.475</v>
+        <v>0.058333333333333334</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.025</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.058333333333333334</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.44166666666666665</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.016666666666666666</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.016666666666666666</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.49166666666666664</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.016666666666666666</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.025</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7139139908991858</v>
+        <v>0.617428107606679</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7418129527620818</v>
+        <v>0.7836533709341941</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.5895887693253357</v>
+        <v>0.7197369303229066</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.5895887693253354</v>
+        <v>0.5469791712122407</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>2.873160991993935</v>
+        <v>3.62221206920599</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.04775362982424778</v>
+        <v>0.035207855198927385</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.1875</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.1686782378094545</v>
+        <v>0.8191605246480156</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.5895887693253354</v>
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.5895887693253354</v>
+        <v>0.7139139908991858</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.5895887693253354</v>
+        <v>0.7418129527620818</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.34761491691456403</v>
+        <v>0.5895887693253357</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.5895887693253354</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.5895887693253354</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>2.873160991993935</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.04775362982424778</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.5895887693253354</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.34761491691456403</v>
+        <v>0.20425890342449526</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.5895887693253354</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.34761491691456403</v>
-      </c>
+        <v>0.6128318083633129</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.44178623187736643</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.44178623187736665</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.58285680900766</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03377651197533286</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.5895887693253354</v>
+        <v>0.44178623187736654</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.35945842868039657</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7574263288627723</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.60956251243402</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.60956251243402</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.1224589433462646</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03415412295068817</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6095625124340202</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>120.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8482698864993146</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8915124141943664</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.684544989843582</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.5895887693253353</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.1416666666666666</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.079182956843619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>120.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9278612696450446</v>
+        <v>0.624833606954499</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.8915124141943664</v>
+        <v>0.8184550897026891</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.6845449898435818</v>
+        <v>0.6740810018919795</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.5895887693253354</v>
+        <v>0.5710951352399435</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.20066416332413975</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>120.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8565787374163853</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8774259201773827</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7986434951196749</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6289336841055186</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.1416666666666666</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.079182956843619</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>120.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9185799135192299</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8104858880966479</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6536097779324134</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.5981302037893601</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.2333333333333334</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.5324683956785214</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.06666666666666667</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.008333333333333333</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.5333333333333333</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2916666666666667</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.058333333333333334</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.25</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.075</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.25833333333333336</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.275</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8994864269992664</v>
+        <v>0.6751999242890268</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9027629875466248</v>
+        <v>0.8101083509104017</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8227602398574626</v>
+        <v>0.7485970804018616</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8227602398574625</v>
+        <v>0.5871272336601298</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.284149777632205</v>
+        <v>4.266161017581983</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.017984087256160762</v>
+        <v>0.02549551386763087</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.15</v>
+        <v>2.775</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.0702234118446972</v>
+        <v>0.7023536527952078</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8227602398574626</v>
+        <v>0.5474887750268045</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8227602398574626</v>
+        <v>0.804972643534871</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8227602398574626</v>
+        <v>0.8107812439128901</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6769344122903094</v>
+        <v>0.6817763676891593</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8227602398574626</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8227602398574626</v>
-      </c>
+        <v>0.6817763676891593</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.2848883518694825</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.034821434572188635</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8227602398574626</v>
+        <v>0.6817763676891593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6769344122903094</v>
+        <v>0.2438052330618612</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8227602398574626</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6769344122903094</v>
-      </c>
+        <v>0.69461628802864</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5321165582644254</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5321165582644254</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.274568881046884</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.03079478679006293</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8227602398574626</v>
+        <v>0.5321165582644254</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.28450057405281304</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7075835170659914</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5474887750268045</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5474887750268045</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.419779863181228</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.03357765646806024</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5474887750268045</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>120.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9598476832883437</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9546623067497383</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8659372529657597</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8227602398574627</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.2</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.1853446827006575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>120.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9491698440026488</v>
+        <v>0.6353192006941073</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9546623067497383</v>
+        <v>0.8142637662536557</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8659372529657597</v>
+        <v>0.6455527255249599</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8227602398574627</v>
+        <v>0.5876756925019176</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.1</v>
+        <v>0.975</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.0563931022846664</v>
+        <v>0.15677956478053226</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>120.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9026223385663958</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8728626542869565</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7881833736883558</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7008263845705994</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.441666666666667</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0108307036712891</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>120.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9271868608905106</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.866843704962186</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7759972871615998</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6994981569980262</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.908333333333333</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.181053747795617</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.125</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.09166666666666666</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24166666666666667</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.15</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.025</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.975</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.09166666666666666</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.225</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.09166666666666666</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.025</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.475</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.075</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.025</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.058333333333333334</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9865724551763155</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9881695669351203</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9766157793276786</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9766157793276786</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>83.52775942485398</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002297394149140557</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.9291666666666667</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.7055222139887136</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9766157793276786</v>
+      <c r="A6" t="n" s="491">
+        <v>0.4790005586308468</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.4835687391036101</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.31888602640502406</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.31888602640502395</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>0.9363661259859846</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.09380847274071238</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.8916666666666666</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.17427491186155</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.31888602640502384</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9766157793276786</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9766157793276786</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.953778380431809</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9766157793276786</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9766157793276786</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9766157793276786</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.31888602640502384</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.31888602640502384</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.10168829783638611</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.31888602640502384</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.31888602640502384</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.31888602640502384</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.953778380431809</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9766157793276786</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.953778380431809</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9766157793276786</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.10168829783638611</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.31888602640502384</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.10168829783638611</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.31888602640502384</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>120.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9936573119603376</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9941367560169171</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9824444411160071</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9766157793276785</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.9</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6469987984260361</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8438539716989253</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8120609664320234</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.4585707820181146</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.3188860264050238</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5578481172124967</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>120.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9945974136148622</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9941367560169171</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9824444411160071</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9766157793276785</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7841309507151428</v>
+      <c r="C18" t="n" s="545">
+        <v>0.7776533134146821</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8120609664320234</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.45857078201811385</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3188860264050238</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3833333333333333</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3295815562972955</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.016666666666666666</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2833333333333333</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.1</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="E24" t="n" s="571">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.06666666666666667</v>
       </c>
-      <c r="F24" t="n" s="572">
-        <v>0.058333333333333334</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.1</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="D24" t="n" s="571">
+        <v>0.075</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.4790005586308468</v>
+        <v>0.8994864269992664</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.4835687391036101</v>
+        <v>0.9027629875466248</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.31888602640502406</v>
+        <v>0.8227602398574626</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.31888602640502395</v>
+        <v>0.8227602398574625</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>0.9363661259859846</v>
+        <v>9.284149777632205</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.09380847274071238</v>
+        <v>0.017984087256160762</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.8916666666666666</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.17427491186155</v>
+        <v>1.0702234118446972</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.10168829783638611</v>
+        <v>0.6769344122903094</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.10168829783638611</v>
+        <v>0.6769344122903094</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.10168829783638611</v>
+        <v>0.6769344122903094</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.31888602640502384</v>
+        <v>0.8227602398574626</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>120.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8438539716989253</v>
+        <v>0.9598476832883437</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8120609664320234</v>
+        <v>0.9546623067497383</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.4585707820181146</v>
+        <v>0.8659372529657597</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.3188860264050238</v>
+        <v>0.8227602398574627</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5578481172124967</v>
+        <v>1.1853446827006575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>120.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.7776533134146821</v>
+        <v>0.9491698440026488</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8120609664320234</v>
+        <v>0.9546623067497383</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.45857078201811385</v>
+        <v>0.8659372529657597</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3188860264050238</v>
+        <v>0.8227602398574627</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3833333333333333</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3295815562972955</v>
+        <v>1.0563931022846664</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.08333333333333333</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.03333333333333333</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.2833333333333333</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.18333333333333332</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.06666666666666667</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.075</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5333333333333333</v>
+        <v>0.225</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14166666666666666</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7883986224187424</v>
+        <v>0.7543946709343259</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8099068888295414</v>
+        <v>0.790157449708153</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9117104903314132</v>
+        <v>0.8933946225046192</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2987662444860085</v>
+        <v>0.2735450089773789</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.260579901305783</v>
+        <v>3.7654777289411028</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.030354368104493323</v>
+        <v>0.03230834505433699</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4758333333333336</v>
+        <v>1.8508333333333333</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7807554877505896</v>
+        <v>0.6889275349841838</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2122314046246206</v>
+        <v>0.18069029442924248</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7598206061729136</v>
+        <v>0.7378733254783433</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7773116744263388</v>
+        <v>0.7671077732649445</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8910471069707595</v>
+        <v>0.8689189824240341</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2794570658735195</v>
+        <v>0.26792554991450956</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.490581162815462</v>
+        <v>3.293831589053538</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.03450421174142254</v>
+        <v>0.035459002997878096</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.05555952386407064</v>
+        <v>0.04689311664420621</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.20460414087915502</v>
+        <v>0.19882752097437062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7638144508957372</v>
+        <v>0.7100197784565379</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7843942170583765</v>
+        <v>0.7599460788386782</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8946928678952448</v>
+        <v>0.8639301554517408</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2878673294548901</v>
+        <v>0.26021706479042606</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.638094518414454</v>
+        <v>3.165730745668498</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.03385530578638485</v>
+        <v>0.037972171945305944</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.05460780935723963</v>
+        <v>0.0480669326282521</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.20996890840743904</v>
+        <v>0.18256003388839837</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7618220394449777</v>
+        <v>0.7233336237150608</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7794943451341602</v>
+        <v>0.764434090593993</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8860742044138566</v>
+        <v>0.8680368193832287</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.28201215166682236</v>
+        <v>0.2650119127503328</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.535031088469909</v>
+        <v>3.245096425546284</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.03408287763793866</v>
+        <v>0.03589960570064972</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.05188157574843341</v>
+        <v>0.04766552982651992</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20292860104928886</v>
+        <v>0.19882752097437062</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7660089697264815</v>
+        <v>0.7589551031656642</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7852221248528847</v>
+        <v>0.786342019292972</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8889739279729636</v>
+        <v>0.894841893440727</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2888733280944585</v>
+        <v>0.2902419491382199</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.6559730573506934</v>
+        <v>3.680377473805761</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.03336584001577669</v>
+        <v>0.03306248933626759</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.05110003490254092</v>
+        <v>0.07067250821731333</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.21588685034936891</v>
+        <v>0.19882752097437062</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7620153287190997</v>
+        <v>0.7332062666410475</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7855895332461673</v>
+        <v>0.766418940047269</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8799961085109754</v>
+        <v>0.8762882937724897</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2893213417811077</v>
+        <v>0.26717074102725186</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.6639514158985174</v>
+        <v>3.2811690305813577</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.034177936303990984</v>
+        <v>0.03479620374932071</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.05952740149305983</v>
+        <v>0.07230944216770721</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20996890840743904</v>
+        <v>0.16403877186115157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7700665522169199</v>
+        <v>0.7434370367320046</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7940007389142086</v>
+        <v>0.7760610310862208</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8905556795696227</v>
+        <v>0.8798772982642108</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2998498910200031</v>
+        <v>0.27800743834302916</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.8543863445390505</v>
+        <v>3.4655023859872265</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.03326324076053288</v>
+        <v>0.03330544333407268</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.06044447088599985</v>
+        <v>0.07013832688225065</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21588685034936891</v>
+        <v>0.17535061610498093</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7759810222426387</v>
+        <v>0.7325112377014633</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8068829262556221</v>
+        <v>0.775558552480744</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8702060660703023</v>
+        <v>0.8954667287488922</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.31705423602317817</v>
+        <v>0.27742793463202675</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.178206051960294</v>
+        <v>3.455505037295771</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.03178923796680238</v>
+        <v>0.035257394974531064</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.050340799150772844</v>
+        <v>0.07723340625214659</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.22445887222947533</v>
+        <v>0.16403877186115157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7862637649846669</v>
+        <v>0.7487834137436432</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.810221127262521</v>
+        <v>0.7883450512384809</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8724441420741949</v>
+        <v>0.9016703831604057</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.32174218055694986</v>
+        <v>0.29271255856279255</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.269290440898019</v>
+        <v>3.724671007464812</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.03022510298145763</v>
+        <v>0.03256983288506726</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.048619375836992544</v>
+        <v>0.0730235953948225</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.22445887222947533</v>
+        <v>0.17535061610498093</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7751097336882066</v>
+        <v>0.7174335281742967</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7988582915793674</v>
+        <v>0.7635764068655072</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9166972087878399</v>
+        <v>0.8565624617086275</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3061776027696299</v>
+        <v>0.2640863869190484</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.9716193018942376</v>
+        <v>3.229696312208301</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.03294899039514006</v>
+        <v>0.036457100836044705</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.06819643497480049</v>
+        <v>0.06723350375363356</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.20292860104928886</v>
+        <v>0.17535061610498093</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7829816651638113</v>
+        <v>0.7269122041696571</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8056207974006113</v>
+        <v>0.7713585779631595</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9200708172585299</v>
+        <v>0.8689938135287945</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3153073176195261</v>
+        <v>0.2726485536961519</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.144583302262939</v>
+        <v>3.373660691451057</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.03156396435088571</v>
+        <v>0.03557253320109221</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.0654742482285241</v>
+        <v>0.06874527360176125</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20460414087915502</v>
+        <v>0.18256003388839837</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6706068277331136</v>
+        <v>0.659014863044706</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7218134429680506</v>
+        <v>0.6227622182126248</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7038352544336037</v>
+        <v>0.6502232385207305</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5893379971135595</v>
+        <v>0.6214576278144377</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.441666666666667</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0108307036712891</v>
+        <v>0.4298882663770058</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6263845003122464</v>
+        <v>0.7147571837261678</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6719635890202784</v>
+        <v>0.6699265799189196</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6454550844774196</v>
+        <v>0.7042489518001116</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5204479547943229</v>
+        <v>0.5624043576961554</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.908333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.181053747795617</v>
+        <v>1.6469987984260361</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6475218954205783</v>
+        <v>0.6867848772504673</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7066687745057787</v>
+        <v>0.6405893054911352</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6981986498779453</v>
+        <v>0.6700271709564828</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5574236836662931</v>
+        <v>0.5072381357709583</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.525</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0608582224158074</v>
+        <v>1.7841309507151428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6112434286909223</v>
+        <v>0.33863264353907496</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.666000769333482</v>
+        <v>0.4862193426636122</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6522854135573224</v>
+        <v>0.40078681142182476</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.49570011781151435</v>
+        <v>0.3182546379610534</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.941666666666667</v>
+        <v>0.975</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.245467974775135</v>
+        <v>0.15677956478053226</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6399694352256987</v>
+        <v>0.5503278184358648</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.663345273862979</v>
+        <v>0.6273805159461865</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6507224707124738</v>
+        <v>0.5837500631943093</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5362241711747481</v>
+        <v>0.43520714999769855</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.2</v>
+        <v>3.441666666666667</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.1853446827006575</v>
+        <v>1.0108307036712891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5755512627038438</v>
+        <v>0.49428219419519004</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6009397812451919</v>
+        <v>0.5610761897814887</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5761731679238883</v>
+        <v>0.510561610839594</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4740263028124262</v>
+        <v>0.3481534642929433</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.1</v>
+        <v>3.908333333333333</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.0563931022846664</v>
+        <v>1.181053747795617</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5967096393803775</v>
+        <v>0.613548373639956</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.4989650836179866</v>
+        <v>0.5646218828970483</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5153618490916188</v>
+        <v>0.469953017934934</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.43326115672581833</v>
+        <v>0.4404642543529893</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.6469987984260361</v>
+        <v>1.5578481172124967</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5711703997939969</v>
+        <v>0.48862903066684366</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.4711783979733862</v>
+        <v>0.47110292034978185</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.48607483270304747</v>
+        <v>0.36155732476996855</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.38523208214142945</v>
+        <v>0.3209187454284119</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.9583333333333334</v>
+        <v>2.3833333333333333</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7841309507151428</v>
+        <v>1.3295815562972955</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5862946170551968</v>
+        <v>0.6542675235760971</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5634337621423884</v>
+        <v>0.6462521347465018</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.46761810234185536</v>
+        <v>0.6384227934777228</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.4308440126989057</v>
+        <v>0.5376312453515271</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5578481172124967</v>
+        <v>1.1853446827006575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>120.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.49632497918742097</v>
+        <v>0.5956888439630625</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5093195304719033</v>
+        <v>0.5938645223473739</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.40359010306392584</v>
+        <v>0.5718064306971049</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3515766712513992</v>
+        <v>0.48240567781315397</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3833333333333333</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3295815562972955</v>
+        <v>1.0563931022846664</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.025</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.05</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.008333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.36666666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.475</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.075</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.025</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.058333333333333334</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.31666666666666665</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.15833333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.44166666666666665</v>
+        <v>0.016666666666666666</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.016666666666666666</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C41" t="n" s="798">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="D41" t="n" s="799">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="E41" t="n" s="800">
         <v>0.06666666666666667</v>
       </c>
-      <c r="D41" t="n" s="799">
-        <v>0.016666666666666666</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.2916666666666667</v>
-      </c>
       <c r="F41" t="n" s="801">
-        <v>0.49166666666666664</v>
+        <v>0.058333333333333334</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.11666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.016666666666666666</v>
+        <v>0.025</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.008333333333333333</v>
+        <v>0.975</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.08333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.125</v>
+        <v>0.025</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.09166666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.39166666666666666</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24166666666666667</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.15</v>
+        <v>0.475</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.075</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.10833333333333334</v>
+        <v>0.025</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.09166666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.48333333333333334</v>
+        <v>0.058333333333333334</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.225</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.09166666666666666</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.008333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.008333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.041666666666666664</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.016666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7583333333333333</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.008333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.008333333333333333</v>
+        <v>0.075</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.06666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.058333333333333334</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.08333333333333333</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.03333333333333333</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.2833333333333333</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.18333333333333332</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.06666666666666667</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.075</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5333333333333333</v>
+        <v>0.225</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14166666666666666</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
